--- a/Input/Forni/FOR_21_Oxygen.xlsx
+++ b/Input/Forni/FOR_21_Oxygen.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\OneDrive\Nauka\Projekty\W trakcie\OPUS_Biomass related to animals in cryoconite holes\Statystyka\Input\Forni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Nauka\Projekty\W trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Forni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0FE70-678F-4D02-803A-2EBF293F8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="3" r:id="rId1"/>
-    <sheet name="Legenda" sheetId="4" r:id="rId2"/>
-    <sheet name="Baza poprawiona" sheetId="1" r:id="rId3"/>
-    <sheet name="Baza dla Kuby" sheetId="2" r:id="rId4"/>
+    <sheet name="OM_calculation" sheetId="5" r:id="rId2"/>
+    <sheet name="Legenda" sheetId="4" r:id="rId3"/>
+    <sheet name="Baza poprawiona" sheetId="1" r:id="rId4"/>
+    <sheet name="Baza dla Kuby" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -202,12 +202,33 @@
   </si>
   <si>
     <t>OM_kriokonit</t>
+  </si>
+  <si>
+    <t>after_ignition</t>
+  </si>
+  <si>
+    <t>dry_mass</t>
+  </si>
+  <si>
+    <t>tare_mass</t>
+  </si>
+  <si>
+    <t>dry_cryo</t>
+  </si>
+  <si>
+    <t>after_ignition_cryo</t>
+  </si>
+  <si>
+    <t>cryo_mass</t>
+  </si>
+  <si>
+    <t>animal_dens</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -603,26 +624,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5894D52D-5133-41B5-B2F8-4FF59BF6AC6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -656,8 +679,14 @@
       <c r="K1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -693,10 +722,15 @@
       <c r="K2" s="8">
         <v>8.2200000000000006</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="L2">
+        <v>8.2899999999998641E-2</v>
+      </c>
+      <c r="M2" s="8">
+        <v>458</v>
+      </c>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -732,11 +766,15 @@
       <c r="K3" s="8">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="8">
+        <v>3.580000000000183E-2</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1089</v>
+      </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -772,11 +810,15 @@
       <c r="K4" s="8">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="8">
+        <v>3.7199999999998568E-2</v>
+      </c>
+      <c r="M4" s="8">
+        <v>81</v>
+      </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -812,11 +854,15 @@
       <c r="K5" s="8">
         <v>9.98</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="8">
+        <v>5.2099999999999369E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>134</v>
+      </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -852,11 +898,15 @@
       <c r="K6" s="8">
         <v>9.98</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="8">
+        <v>4.2000000000001592E-2</v>
+      </c>
+      <c r="M6" s="8">
+        <v>71</v>
+      </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -892,11 +942,15 @@
       <c r="K7" s="8">
         <v>9.98</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="8">
+        <v>2.5999999999999801E-2</v>
+      </c>
+      <c r="M7" s="8">
+        <v>38</v>
+      </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -932,11 +986,15 @@
       <c r="K8" s="8">
         <v>12.5</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="8">
+        <v>5.689999999999884E-2</v>
+      </c>
+      <c r="M8" s="8">
+        <v>123</v>
+      </c>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -972,11 +1030,15 @@
       <c r="K9" s="8">
         <v>12.5</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="L9" s="8">
+        <v>3.7400000000001654E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>267</v>
+      </c>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1012,11 +1074,15 @@
       <c r="K10" s="8">
         <v>12.5</v>
       </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="8">
+        <v>3.9699999999999847E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>76</v>
+      </c>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1052,11 +1118,15 @@
       <c r="K11" s="8">
         <v>11.94</v>
       </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="8">
+        <v>3.0200000000000671E-2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>762</v>
+      </c>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1092,11 +1162,15 @@
       <c r="K12" s="8">
         <v>11.94</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="L12">
+        <v>3.7600000000001188E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1132,11 +1206,15 @@
       <c r="K13" s="8">
         <v>11.94</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="L13" s="8">
+        <v>2.4000000000000909E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <v>42</v>
+      </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1170,11 +1248,15 @@
         <v>14.26</v>
       </c>
       <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="8">
+        <v>8.9700000000000557E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <v>67</v>
+      </c>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1208,11 +1290,15 @@
         <v>14.55</v>
       </c>
       <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="L15" s="8">
+        <v>7.0100000000000051E-2</v>
+      </c>
+      <c r="M15" s="8">
+        <v>100</v>
+      </c>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1246,11 +1332,15 @@
         <v>11.01</v>
       </c>
       <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="L16" s="8">
+        <v>0.10440000000000182</v>
+      </c>
+      <c r="M16" s="8">
+        <v>19</v>
+      </c>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1286,11 +1376,15 @@
       <c r="K17" s="8">
         <v>8.83</v>
       </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="8">
+        <v>7.0499999999999119E-2</v>
+      </c>
+      <c r="M17" s="8">
+        <v>57</v>
+      </c>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1326,11 +1420,15 @@
       <c r="K18" s="8">
         <v>8.83</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="L18" s="8">
+        <v>8.7900000000001199E-2</v>
+      </c>
+      <c r="M18" s="8">
+        <v>137</v>
+      </c>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1366,11 +1464,15 @@
       <c r="K19" s="8">
         <v>8.83</v>
       </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="8">
+        <v>4.5700000000000074E-2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>22</v>
+      </c>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1391,21 +1493,652 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F8296D-AE21-4EB2-9103-55FC688F661E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>26.9575</v>
+      </c>
+      <c r="E2">
+        <v>26.995100000000001</v>
+      </c>
+      <c r="F2">
+        <f>E2-D2</f>
+        <v>3.7600000000001188E-2</v>
+      </c>
+      <c r="G2">
+        <v>26.990600000000001</v>
+      </c>
+      <c r="H2">
+        <f>G2-D2</f>
+        <v>3.3100000000001017E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <f>ROUND(1-(H2/F2),4)*100</f>
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>26.795999999999999</v>
+      </c>
+      <c r="E3">
+        <v>26.82</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="0">E3-D3</f>
+        <v>2.4000000000000909E-2</v>
+      </c>
+      <c r="G3">
+        <v>26.816600000000001</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H19" si="1">G3-D3</f>
+        <v>2.0600000000001728E-2</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I19" si="2">ROUND(1-(H3/F3),4)*100</f>
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>26.1097</v>
+      </c>
+      <c r="E4">
+        <v>26.139900000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>3.0200000000000671E-2</v>
+      </c>
+      <c r="G4">
+        <v>26.1371</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>2.7400000000000091E-2</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="2"/>
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>24.7821</v>
+      </c>
+      <c r="E5">
+        <v>24.8218</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.9699999999999847E-2</v>
+      </c>
+      <c r="G5">
+        <v>24.817299999999999</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.5199999999999676E-2</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="2"/>
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>27.483799999999999</v>
+      </c>
+      <c r="E6">
+        <v>27.5212</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.7400000000001654E-2</v>
+      </c>
+      <c r="G6">
+        <v>27.5151</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.130000000000166E-2</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="2"/>
+        <v>16.309999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>27.7727</v>
+      </c>
+      <c r="E7">
+        <v>27.829599999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>5.689999999999884E-2</v>
+      </c>
+      <c r="G7">
+        <v>27.8218</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>4.9099999999999255E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="2"/>
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>28.206099999999999</v>
+      </c>
+      <c r="E8">
+        <v>28.232099999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999801E-2</v>
+      </c>
+      <c r="G8">
+        <v>28.2303</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.4200000000000443E-2</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="2"/>
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>28.6708</v>
+      </c>
+      <c r="E9">
+        <v>28.712800000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.2000000000001592E-2</v>
+      </c>
+      <c r="G9">
+        <v>28.708300000000001</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>3.7500000000001421E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>26.5746</v>
+      </c>
+      <c r="E10">
+        <v>26.6267</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.2099999999999369E-2</v>
+      </c>
+      <c r="G10">
+        <v>26.623799999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>4.9199999999999022E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>26.3855</v>
+      </c>
+      <c r="E11">
+        <v>26.468399999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>8.2899999999998641E-2</v>
+      </c>
+      <c r="G11">
+        <v>26.461200000000002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>7.5700000000001211E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>8.6900000000000013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>26.489899999999999</v>
+      </c>
+      <c r="E12">
+        <v>26.525700000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3.580000000000183E-2</v>
+      </c>
+      <c r="G12">
+        <v>26.521799999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>3.1900000000000261E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>28.388500000000001</v>
+      </c>
+      <c r="E13">
+        <v>28.425699999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.7199999999998568E-2</v>
+      </c>
+      <c r="G13">
+        <v>28.422999999999998</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>3.4499999999997755E-2</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>27.351099999999999</v>
+      </c>
+      <c r="E14">
+        <v>27.440799999999999</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>8.9700000000000557E-2</v>
+      </c>
+      <c r="G14">
+        <v>27.428000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>7.6900000000001967E-2</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>28.478100000000001</v>
+      </c>
+      <c r="E15">
+        <v>28.548200000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>7.0100000000000051E-2</v>
+      </c>
+      <c r="G15">
+        <v>28.538</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>5.9899999999998954E-2</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>14.549999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>26.279199999999999</v>
+      </c>
+      <c r="E16">
+        <v>26.383600000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.10440000000000182</v>
+      </c>
+      <c r="G16">
+        <v>26.371200000000002</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>9.2000000000002302E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>27.01</v>
+      </c>
+      <c r="E17">
+        <v>27.080500000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>7.0499999999999119E-2</v>
+      </c>
+      <c r="G17">
+        <v>27.074300000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.4299999999999358E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="2"/>
+        <v>8.7900000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>25.338999999999999</v>
+      </c>
+      <c r="E18">
+        <v>25.4269</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>8.7900000000001199E-2</v>
+      </c>
+      <c r="G18">
+        <v>25.417200000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>7.820000000000249E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="2"/>
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>28.864000000000001</v>
+      </c>
+      <c r="E19">
+        <v>28.909700000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>4.5700000000000074E-2</v>
+      </c>
+      <c r="G19">
+        <v>28.906600000000001</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>4.2600000000000193E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="2"/>
+        <v>6.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1415,25 +2148,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1456,17 +2189,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1491,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +2249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +2274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +2299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +2324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1641,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1691,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1716,7 +2449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1741,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -1791,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1841,7 +2574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1866,7 +2599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1891,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +2674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +2702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2019,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2044,7 +2777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2799,7 @@
         <v>300.32</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2821,7 @@
         <v>5329.13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2113,7 +2846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2163,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -2210,7 +2943,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +2965,7 @@
         <v>63.660000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2254,7 +2987,7 @@
         <v>147.65</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +3009,7 @@
         <v>2144.96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -2298,7 +3031,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
@@ -2323,58 +3056,58 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C33">
+  <sortState ref="A4:C33">
     <sortCondition ref="A4:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L36"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="65.5703125" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +3130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2497,7 +3230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2522,7 +3255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2547,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2622,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -2647,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2672,7 +3405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2697,7 +3430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2722,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -2747,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2772,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -2800,7 +3533,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2825,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2850,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -2875,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +3633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2925,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2950,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -2975,7 +3708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2997,7 +3730,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -3022,17 +3755,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>49</v>
       </c>

--- a/Input/Forni/FOR_21_Oxygen.xlsx
+++ b/Input/Forni/FOR_21_Oxygen.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm\OneDrive\Nauka\Projekty\W trakcie\OPUS_Effects of animals on oxygen conditions in cryoconite holes\Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes\Input\Forni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f313c7e1df1b448f/Nauka/Projekty/W trakcie/OPUS_Effects of animals on oxygen conditions in cryoconite holes/Effects-of-animals-on-oxygen-conditions-in-cryoconite-holes/Input/Forni/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6575232F38A9DB40A0FB70D64251E525BC7798A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFCD73F1-7795-46EF-B807-C6D525E653A3}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Baza poprawiona" sheetId="1" r:id="rId4"/>
     <sheet name="Baza dla Kuby" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -228,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -310,7 +313,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -624,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +644,11 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -686,806 +689,770 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>18</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2">
         <v>20</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2">
         <f>D2*2.46</f>
         <v>44.28</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2">
         <v>108.15</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2">
         <f>G2+F2</f>
         <v>152.43</v>
       </c>
-      <c r="I2" s="8">
-        <v>2</v>
-      </c>
-      <c r="J2" s="8">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
         <v>8.68</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2">
         <v>8.2200000000000006</v>
       </c>
       <c r="L2">
         <v>8.2899999999998641E-2</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2">
         <v>458</v>
       </c>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3">
         <f t="shared" ref="F3:F19" si="0">D3*2.46</f>
         <v>59.04</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3">
         <v>41.4</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3">
         <f t="shared" ref="H3:H19" si="1">G3+F3</f>
         <v>100.44</v>
       </c>
-      <c r="I3" s="8">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
         <v>10.89</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3">
         <v>3.580000000000183E-2</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3">
         <v>1089</v>
       </c>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>2.46</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4">
         <v>4.21</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>6.67</v>
       </c>
-      <c r="I4" s="8">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>7.25</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4">
         <v>8.2200000000000006</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4">
         <v>3.7199999999998568E-2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4">
         <v>81</v>
       </c>
-      <c r="N4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>4.92</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5">
         <v>10.38</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>15.3</v>
       </c>
-      <c r="I5" s="8">
-        <v>3</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
         <v>5.56</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5">
         <v>9.98</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5">
         <v>5.2099999999999369E-2</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5">
         <v>134</v>
       </c>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>4.92</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6">
         <v>3.14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>8.06</v>
       </c>
-      <c r="I6" s="8">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
         <v>10.7</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6">
         <v>9.98</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>4.2000000000001592E-2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6">
         <v>71</v>
       </c>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>2.46</v>
       </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>2.46</v>
       </c>
-      <c r="I7" s="8">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>6.96</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7">
         <v>9.98</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>2.5999999999999801E-2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7">
         <v>38</v>
       </c>
-      <c r="N7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>7.38</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8">
         <v>30.81</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>38.19</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8">
         <v>13.76</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8">
         <v>12.5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8">
         <v>5.689999999999884E-2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8">
         <v>123</v>
       </c>
-      <c r="N8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
-        <v>3</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>7.38</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9">
         <v>23.9</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>31.279999999999998</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9">
         <v>16.309999999999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9">
         <v>12.5</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9">
         <v>3.7400000000001654E-2</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9">
         <v>267</v>
       </c>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>4.92</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10">
         <v>3.57</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>8.49</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10">
         <v>11.33</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10">
         <v>12.5</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10">
         <v>3.9699999999999847E-2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10">
         <v>76</v>
       </c>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>27.06</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11">
         <v>26.24</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>53.3</v>
       </c>
-      <c r="I11" s="8">
-        <v>3</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
         <v>9.27</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11">
         <v>11.94</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11">
         <v>3.0200000000000671E-2</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11">
         <v>762</v>
       </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3</v>
-      </c>
-      <c r="J12" s="8">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
         <v>11.96</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12">
         <v>11.94</v>
       </c>
       <c r="L12">
         <v>3.7600000000001188E-2</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>1.2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="I13" s="8">
-        <v>3</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
         <v>15.41</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13">
         <v>11.94</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13">
         <v>2.4000000000000909E-2</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13">
         <v>42</v>
       </c>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>2.46</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14">
         <v>32.81</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>35.270000000000003</v>
       </c>
-      <c r="I14" s="8">
-        <v>3</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>14.26</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8">
+      <c r="L14">
         <v>8.9700000000000557E-2</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14">
         <v>67</v>
       </c>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>17.22</v>
       </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>17.22</v>
       </c>
-      <c r="I15" s="8">
-        <v>3</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <v>14.55</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8">
+      <c r="L15">
         <v>7.0100000000000051E-2</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15">
         <v>100</v>
       </c>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>2.46</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16">
         <v>0.98</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>3.44</v>
       </c>
-      <c r="I16" s="8">
-        <v>3</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
         <v>11.01</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8">
+      <c r="L16">
         <v>0.10440000000000182</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16">
         <v>19</v>
       </c>
-      <c r="N16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I17" s="8">
-        <v>2</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>8.7899999999999991</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17">
         <v>8.83</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17">
         <v>7.0499999999999119E-2</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17">
         <v>57</v>
       </c>
-      <c r="N17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>9</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>29.52</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>29.52</v>
       </c>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-      <c r="J18" s="8">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
         <v>11.03</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18">
         <v>8.83</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18">
         <v>8.7900000000001199E-2</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18">
         <v>137</v>
       </c>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>9.65</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>9.65</v>
       </c>
-      <c r="I19" s="8">
-        <v>2</v>
-      </c>
-      <c r="J19" s="8">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
         <v>6.78</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19">
         <v>8.83</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19">
         <v>4.5700000000000074E-2</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19">
         <v>22</v>
       </c>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1546,10 +1513,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
@@ -1569,7 +1536,7 @@
         <f>G2-D2</f>
         <v>3.3100000000001017E-2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2">
         <f>ROUND(1-(H2/F2),4)*100</f>
         <v>11.97</v>
       </c>
@@ -1578,10 +1545,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
@@ -1601,7 +1568,7 @@
         <f t="shared" ref="H3:H19" si="1">G3-D3</f>
         <v>2.0600000000001728E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3">
         <f t="shared" ref="I3:I19" si="2">ROUND(1-(H3/F3),4)*100</f>
         <v>14.17</v>
       </c>
@@ -1610,10 +1577,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
@@ -1633,7 +1600,7 @@
         <f t="shared" si="1"/>
         <v>2.7400000000000091E-2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>9.27</v>
       </c>
@@ -1642,10 +1609,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>5</v>
       </c>
       <c r="D5">
@@ -1665,7 +1632,7 @@
         <f t="shared" si="1"/>
         <v>3.5199999999999676E-2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>11.34</v>
       </c>
@@ -1674,10 +1641,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
@@ -1697,7 +1664,7 @@
         <f t="shared" si="1"/>
         <v>3.130000000000166E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>16.309999999999999</v>
       </c>
@@ -1706,10 +1673,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
@@ -1729,7 +1696,7 @@
         <f t="shared" si="1"/>
         <v>4.9099999999999255E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>13.71</v>
       </c>
@@ -1738,10 +1705,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
@@ -1761,7 +1728,7 @@
         <f t="shared" si="1"/>
         <v>2.4200000000000443E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>6.92</v>
       </c>
@@ -1770,10 +1737,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
@@ -1793,7 +1760,7 @@
         <f t="shared" si="1"/>
         <v>3.7500000000001421E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>10.71</v>
       </c>
@@ -1802,10 +1769,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
@@ -1825,7 +1792,7 @@
         <f t="shared" si="1"/>
         <v>4.9199999999999022E-2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>5.57</v>
       </c>
@@ -1834,10 +1801,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
@@ -1857,7 +1824,7 @@
         <f t="shared" si="1"/>
         <v>7.5700000000001211E-2</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>8.6900000000000013</v>
       </c>
@@ -1866,10 +1833,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
@@ -1889,7 +1856,7 @@
         <f t="shared" si="1"/>
         <v>3.1900000000000261E-2</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>10.89</v>
       </c>
@@ -1898,10 +1865,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
@@ -1921,7 +1888,7 @@
         <f t="shared" si="1"/>
         <v>3.4499999999997755E-2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>7.26</v>
       </c>
@@ -1930,10 +1897,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>7</v>
       </c>
       <c r="D14">
@@ -1953,7 +1920,7 @@
         <f t="shared" si="1"/>
         <v>7.6900000000001967E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>14.27</v>
       </c>
@@ -1962,10 +1929,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>7</v>
       </c>
       <c r="D15">
@@ -1985,7 +1952,7 @@
         <f t="shared" si="1"/>
         <v>5.9899999999998954E-2</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>14.549999999999999</v>
       </c>
@@ -1994,10 +1961,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>7</v>
       </c>
       <c r="D16">
@@ -2017,7 +1984,7 @@
         <f t="shared" si="1"/>
         <v>9.2000000000002302E-2</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>11.88</v>
       </c>
@@ -2026,10 +1993,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>9</v>
       </c>
       <c r="D17">
@@ -2049,7 +2016,7 @@
         <f t="shared" si="1"/>
         <v>6.4299999999999358E-2</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>8.7900000000000009</v>
       </c>
@@ -2058,10 +2025,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>9</v>
       </c>
       <c r="D18">
@@ -2081,7 +2048,7 @@
         <f t="shared" si="1"/>
         <v>7.820000000000249E-2</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18">
         <f t="shared" si="2"/>
         <v>11.04</v>
       </c>
@@ -2090,10 +2057,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>9</v>
       </c>
       <c r="D19">
@@ -2113,7 +2080,7 @@
         <f t="shared" si="1"/>
         <v>4.2600000000000193E-2</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19">
         <f t="shared" si="2"/>
         <v>6.78</v>
       </c>
@@ -2124,7 +2091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2149,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3082,7 +3049,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:C33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C33">
     <sortCondition ref="A4:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3090,7 +3057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
